--- a/data/trans_dic/P56$amigo-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P56$amigo-Estudios-trans_dic.xlsx
@@ -708,7 +708,7 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02277562090992343</v>
+        <v>0.02247841364782421</v>
       </c>
       <c r="D5" s="5" t="inlineStr"/>
       <c r="E5" s="5" t="inlineStr"/>
@@ -719,25 +719,25 @@
         <v>0</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.01174715791584956</v>
+        <v>0.01106288424249084</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.006870436355761409</v>
+        <v>0.006807213548929137</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.02183152414781306</v>
+        <v>0.0209779743686423</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.008805321365574178</v>
+        <v>0.008110147882393661</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.008116162288573011</v>
+        <v>0.008395806647051524</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.004862724117460489</v>
+        <v>0.004719635941240093</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.01920920432403641</v>
+        <v>0.0191910570560271</v>
       </c>
     </row>
     <row r="6">
@@ -748,36 +748,36 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1834714768361719</v>
+        <v>0.16157520438092</v>
       </c>
       <c r="D6" s="5" t="inlineStr"/>
       <c r="E6" s="5" t="inlineStr"/>
       <c r="F6" s="5" t="n">
-        <v>0.05143113143946711</v>
+        <v>0.04688821791036853</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.06137020578891191</v>
+        <v>0.0673197096549933</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.07027253470610338</v>
+        <v>0.05968392224870348</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.06179625290750108</v>
+        <v>0.05838634309413421</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.06229005490285689</v>
+        <v>0.06313850897972523</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.07873928577902828</v>
+        <v>0.07484349860665258</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.04668174637884771</v>
+        <v>0.04714954992020957</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.04784126073232209</v>
+        <v>0.04452488650483872</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.05053619305322601</v>
+        <v>0.05157244691144067</v>
       </c>
     </row>
     <row r="7">
@@ -801,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.07335597648039052</v>
+        <v>0.07335597648039054</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0</v>
@@ -813,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.01169939558207063</v>
+        <v>0.01169939558207062</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.03469755792407614</v>
+        <v>0.03469755792407613</v>
       </c>
     </row>
     <row r="8">
@@ -839,7 +839,7 @@
       <c r="D8" s="5" t="inlineStr"/>
       <c r="E8" s="5" t="inlineStr"/>
       <c r="F8" s="5" t="n">
-        <v>0.01635522338796503</v>
+        <v>0.01692547121122519</v>
       </c>
       <c r="G8" s="5" t="inlineStr"/>
       <c r="H8" s="5" t="inlineStr"/>
@@ -851,7 +851,7 @@
       <c r="L8" s="5" t="inlineStr"/>
       <c r="M8" s="5" t="inlineStr"/>
       <c r="N8" s="5" t="n">
-        <v>0.009082631846091095</v>
+        <v>0.01187526514497496</v>
       </c>
     </row>
     <row r="9">
@@ -865,19 +865,19 @@
       <c r="D9" s="5" t="inlineStr"/>
       <c r="E9" s="5" t="inlineStr"/>
       <c r="F9" s="5" t="n">
-        <v>0.2100704734429397</v>
+        <v>0.1899607517332103</v>
       </c>
       <c r="G9" s="5" t="inlineStr"/>
       <c r="H9" s="5" t="inlineStr"/>
       <c r="I9" s="5" t="inlineStr"/>
       <c r="J9" s="5" t="n">
-        <v>0.06001852352187988</v>
+        <v>0.06701946956433869</v>
       </c>
       <c r="K9" s="5" t="inlineStr"/>
       <c r="L9" s="5" t="inlineStr"/>
       <c r="M9" s="5" t="inlineStr"/>
       <c r="N9" s="5" t="n">
-        <v>0.08555153035592873</v>
+        <v>0.08737163159608638</v>
       </c>
     </row>
     <row r="10">
@@ -967,7 +967,7 @@
       <c r="D12" s="5" t="inlineStr"/>
       <c r="E12" s="5" t="inlineStr"/>
       <c r="F12" s="5" t="n">
-        <v>0.4886606040588193</v>
+        <v>0.4758802098698334</v>
       </c>
       <c r="G12" s="5" t="n">
         <v>1</v>
@@ -975,7 +975,7 @@
       <c r="H12" s="5" t="inlineStr"/>
       <c r="I12" s="5" t="inlineStr"/>
       <c r="J12" s="5" t="n">
-        <v>0.3157649966358378</v>
+        <v>0.3254174408972733</v>
       </c>
       <c r="K12" s="5" t="n">
         <v>1</v>
@@ -983,7 +983,7 @@
       <c r="L12" s="5" t="inlineStr"/>
       <c r="M12" s="5" t="inlineStr"/>
       <c r="N12" s="5" t="n">
-        <v>0.3074840306626342</v>
+        <v>0.2877282527991874</v>
       </c>
     </row>
     <row r="13">
@@ -1007,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.03745320038267241</v>
+        <v>0.03745320038267242</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.02183302243278206</v>
@@ -1042,36 +1042,36 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02065455728898553</v>
+        <v>0.0209528268313097</v>
       </c>
       <c r="D14" s="5" t="inlineStr"/>
       <c r="E14" s="5" t="inlineStr"/>
       <c r="F14" s="5" t="n">
-        <v>0.01487589111293671</v>
+        <v>0.01318875091093049</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.01019397658727916</v>
+        <v>0.01035212031839463</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0</v>
+        <v>0.005615903245633764</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.02136057924198485</v>
+        <v>0.02056605028372257</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01408907081817239</v>
+        <v>0.01365715648792474</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.007528146255864529</v>
+        <v>0.004223538075074725</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.004005950159071041</v>
+        <v>0.004004964221675508</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.0232772321828154</v>
+        <v>0.02254363473286342</v>
       </c>
     </row>
     <row r="15">
@@ -1082,36 +1082,36 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1495174870297562</v>
+        <v>0.1598869764874277</v>
       </c>
       <c r="D15" s="5" t="inlineStr"/>
       <c r="E15" s="5" t="inlineStr"/>
       <c r="F15" s="5" t="n">
-        <v>0.08547314742600648</v>
+        <v>0.08252702677545846</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.0680564885488408</v>
+        <v>0.07230169404172258</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.05890600552436231</v>
+        <v>0.05815091614300015</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.05332688124286409</v>
+        <v>0.04910339140021838</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.05428757907608849</v>
+        <v>0.05683565345453152</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.07695723568330048</v>
+        <v>0.07981962354644098</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.04620615817249409</v>
+        <v>0.04245227311249501</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.03599789548860702</v>
+        <v>0.03743495573652385</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.05392006905729444</v>
+        <v>0.05229641467626827</v>
       </c>
     </row>
     <row r="16">
@@ -1381,7 +1381,7 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>1005</v>
+        <v>992</v>
       </c>
       <c r="D6" s="6" t="inlineStr"/>
       <c r="E6" s="6" t="inlineStr"/>
@@ -1392,25 +1392,25 @@
         <v>0</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>2184</v>
+        <v>2057</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>981</v>
+        <v>972</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>4741</v>
+        <v>4556</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>1123</v>
+        <v>1034</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>2064</v>
+        <v>2135</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>970</v>
+        <v>941</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>5559</v>
+        <v>5554</v>
       </c>
     </row>
     <row r="7">
@@ -1421,36 +1421,36 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>8098</v>
+        <v>7131</v>
       </c>
       <c r="D7" s="6" t="inlineStr"/>
       <c r="E7" s="6" t="inlineStr"/>
       <c r="F7" s="6" t="n">
-        <v>3716</v>
+        <v>3388</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>5119</v>
+        <v>5615</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>13067</v>
+        <v>11098</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>8820</v>
+        <v>8334</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>13527</v>
+        <v>13712</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>10043</v>
+        <v>9546</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>11873</v>
+        <v>11992</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>9541</v>
+        <v>8879</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>14626</v>
+        <v>14926</v>
       </c>
     </row>
     <row r="8">
@@ -1556,7 +1556,7 @@
       <c r="D10" s="6" t="inlineStr"/>
       <c r="E10" s="6" t="inlineStr"/>
       <c r="F10" s="6" t="n">
-        <v>468</v>
+        <v>484</v>
       </c>
       <c r="G10" s="6" t="inlineStr"/>
       <c r="H10" s="6" t="inlineStr"/>
@@ -1568,7 +1568,7 @@
       <c r="L10" s="6" t="inlineStr"/>
       <c r="M10" s="6" t="inlineStr"/>
       <c r="N10" s="6" t="n">
-        <v>696</v>
+        <v>910</v>
       </c>
     </row>
     <row r="11">
@@ -1582,19 +1582,19 @@
       <c r="D11" s="6" t="inlineStr"/>
       <c r="E11" s="6" t="inlineStr"/>
       <c r="F11" s="6" t="n">
-        <v>6007</v>
+        <v>5432</v>
       </c>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="inlineStr"/>
       <c r="I11" s="6" t="inlineStr"/>
       <c r="J11" s="6" t="n">
-        <v>2885</v>
+        <v>3221</v>
       </c>
       <c r="K11" s="6" t="inlineStr"/>
       <c r="L11" s="6" t="inlineStr"/>
       <c r="M11" s="6" t="inlineStr"/>
       <c r="N11" s="6" t="n">
-        <v>6558</v>
+        <v>6697</v>
       </c>
     </row>
     <row r="12">
@@ -1728,7 +1728,7 @@
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="inlineStr"/>
       <c r="F15" s="6" t="n">
-        <v>3493</v>
+        <v>3402</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>3361</v>
@@ -1736,7 +1736,7 @@
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="inlineStr"/>
       <c r="J15" s="6" t="n">
-        <v>2579</v>
+        <v>2658</v>
       </c>
       <c r="K15" s="6" t="n">
         <v>3361</v>
@@ -1744,7 +1744,7 @@
       <c r="L15" s="6" t="inlineStr"/>
       <c r="M15" s="6" t="inlineStr"/>
       <c r="N15" s="6" t="n">
-        <v>4709</v>
+        <v>4407</v>
       </c>
     </row>
     <row r="16">
@@ -1847,36 +1847,36 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>997</v>
+        <v>1012</v>
       </c>
       <c r="D18" s="6" t="inlineStr"/>
       <c r="E18" s="6" t="inlineStr"/>
       <c r="F18" s="6" t="n">
-        <v>1606</v>
+        <v>1424</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2061</v>
+        <v>2093</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0</v>
+        <v>965</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>5840</v>
+        <v>5623</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1998</v>
+        <v>1937</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>2113</v>
+        <v>1185</v>
       </c>
       <c r="M18" s="6" t="n">
         <v>977</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>8878</v>
+        <v>8598</v>
       </c>
     </row>
     <row r="19">
@@ -1887,36 +1887,36 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>7219</v>
+        <v>7720</v>
       </c>
       <c r="D19" s="6" t="inlineStr"/>
       <c r="E19" s="6" t="inlineStr"/>
       <c r="F19" s="6" t="n">
-        <v>9230</v>
+        <v>8912</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>6366</v>
+        <v>6763</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>11907</v>
+        <v>11754</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>9161</v>
+        <v>8435</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>14842</v>
+        <v>15539</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>10914</v>
+        <v>11320</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>12967</v>
+        <v>11914</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>8779</v>
+        <v>9130</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>20564</v>
+        <v>19945</v>
       </c>
     </row>
     <row r="20">
